--- a/biology/Microbiologie/Gélose_à_la_phénylalanine/Gélose_à_la_phénylalanine.xlsx
+++ b/biology/Microbiologie/Gélose_à_la_phénylalanine/Gélose_à_la_phénylalanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_la_ph%C3%A9nylalanine</t>
+          <t>Gélose_à_la_phénylalanine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phénylalanine (gélose) est un milieu de culture biochimique permettant la recherche de l'enzyme phénylalanine désaminase.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_la_ph%C3%A9nylalanine</t>
+          <t>Gélose_à_la_phénylalanine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu catalyse la réaction suivante : phénylalanine → acide phénylpyruvique.
 Le phénylpyruvate donne une teinte verte en présence d'ion ferrique.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_la_ph%C3%A9nylalanine</t>
+          <t>Gélose_à_la_phénylalanine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Composition pour la préparation d'un litre de milieu.
 L-Phénylalanine :.......................1 g
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_%C3%A0_la_ph%C3%A9nylalanine</t>
+          <t>Gélose_à_la_phénylalanine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu est présenté en gélose incliné.
 La lecture se fait après ajout de perchlorure de fer :
